--- a/biology/Botanique/Aspergillus_flavus/Aspergillus_flavus.xlsx
+++ b/biology/Botanique/Aspergillus_flavus/Aspergillus_flavus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aspergillus flavus est une espèce de champignons ascomycètes.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition, habitats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette moisissure est relativement ubiquiste et très cosmopolite (sol, matières organiques en décomposition, graines d'oléagineux, céréales).
 Elle est particulièrement abondante sur les arachides et ses dérivés. On la retrouve également dans les régions tropicales sur les niébés (haricots du Sénégal) et le riz.
@@ -543,7 +557,9 @@
           <t>Enjeux agricoles et sanitaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Aspergillus flavus est le principal producteur d'aflatoxines B1 (la plus importante), B2, G1 et G2.
 L'aflatoxine B1 est actuellement considérée comme le plus important agent carcinogène d'origine naturelle connu.
@@ -577,7 +593,9 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe des teneurs maximales réglementaires à ne pas dépasser, variant selon les produits.
 </t>
@@ -608,7 +626,9 @@
           <t>Conditions de développement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">T° optimum de croissance : de l'ordre de 33 °C, t°min. : 10−12 °C, t°max. : 43−48 °C
 Aw minimale : 0.78 à 33 °C, 0.80 à 37 °C
